--- a/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
@@ -18,12 +18,15 @@
     <sheet name="эталонные значения" sheetId="4" r:id="rId4"/>
     <sheet name="распознанные значения" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'детализация попакетно'!$A$1:$H$25</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="40">
   <si>
     <t>Шаблон</t>
   </si>
@@ -67,15 +70,45 @@
     <t>test_uvhd_table02 Тест Акт ПИМ есть таблица УВХД.png</t>
   </si>
   <si>
+    <t>table_cost_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Цена по позициям</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>table_cost_without_tax_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Сумма без НДС по позициям</t>
+  </si>
+  <si>
+    <t>table_qty_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Количество товара/услуг по позициям</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>table_description_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Наименование товара/услуги</t>
+  </si>
+  <si>
+    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
+  </si>
+  <si>
     <t>table_cost_with_tax_column_row_attribute</t>
   </si>
   <si>
     <t>Сумма с НДС по позициям</t>
   </si>
   <si>
-    <t>1280.00</t>
-  </si>
-  <si>
     <t>table_unit_column_row_attribute</t>
   </si>
   <si>
@@ -85,37 +118,7 @@
     <t>усл.ед.</t>
   </si>
   <si>
-    <t>table_cost_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Цена по позициям</t>
-  </si>
-  <si>
-    <t>1 280,00</t>
-  </si>
-  <si>
-    <t>table_description_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Наименование товара/услуги</t>
-  </si>
-  <si>
-    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
-  </si>
-  <si>
-    <t>table_qty_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Количество товара/услуг по позициям</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>table_cost_without_tax_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Сумма без НДС по позициям</t>
+    <t>test_uvhd_table03 Тест Акт ПИМ нет таблицы УВХД.png</t>
   </si>
   <si>
     <t>test_uvhd_table01 Тест Акт ПИМ есть таблица УВХД.png</t>
@@ -124,25 +127,19 @@
     <t>9200.00</t>
   </si>
   <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
     <t>шт</t>
   </si>
   <si>
-    <t>9 200.00</t>
-  </si>
-  <si>
     <t>Участие кейса «ВТБ Онлайн» в конкурсе Workspace Digital Awards, в номинации «Мобильные приложения / Финансы, страхование и инвестиции»</t>
   </si>
   <si>
-    <t>Участие кейса «ВТБ Онлайн» в конкурсе /огК5расе 19а! Амага5, в номинации «Мобильные приложения / Финансы, страхование и инвестиции»</t>
-  </si>
-  <si>
     <t>Участие кейса «Чат-бот ВТБ» в конкурсе Workspace Digital Awards, в номинации «Цифровизация и трансформация / Чат-боты»</t>
   </si>
   <si>
     <t>Участие кейса «Чат-бот ВТБ» в конкурсе М/огК5расе 19а! Ауага5, в номинации «Цифровизация и трансформация / Чат-боты»</t>
-  </si>
-  <si>
-    <t>test_uvhd_table03 Тест Акт ПИМ нет таблицы УВХД.png</t>
   </si>
   <si>
     <t>Наименование колонки</t>
@@ -552,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>44.67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -562,23 +559,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="56.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="23.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,14 +615,17 @@
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,14 +638,11 @@
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,16 +650,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -678,19 +670,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -698,13 +693,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -718,21 +713,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -740,114 +738,99 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,22 +838,25 @@
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>0.67</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -878,19 +864,19 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,161 +884,194 @@
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4">
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1064,58 +1083,61 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1153,10 +1175,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -1167,10 +1189,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -1181,10 +1203,10 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1195,10 +1217,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -1209,10 +1231,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,10 +1242,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -1234,13 +1256,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,13 +1270,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,13 +1284,13 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,13 +1298,13 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,13 +1312,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1318,10 +1340,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1332,10 +1354,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,13 +1365,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,13 +1379,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,79 +1393,79 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1478,13 +1500,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,13 +1514,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,16 +1533,19 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,13 +1553,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,13 +1564,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,10 +1578,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,24 +1592,24 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,16 +1622,19 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,10 +1642,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,10 +1653,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,26 +1667,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1666,46 +1697,57 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="общая статистика" sheetId="1" r:id="rId1"/>
@@ -64,63 +64,66 @@
     <t>Оценка пакет</t>
   </si>
   <si>
+    <t>test_uvhd_table02 Тест Акт ПИМ есть таблица УВХД.png</t>
+  </si>
+  <si>
+    <t>table_unit_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Ед.изм</t>
+  </si>
+  <si>
+    <t>усл.ед.</t>
+  </si>
+  <si>
+    <t>table_cost_with_tax_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Сумма с НДС по позициям</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>table_description_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Наименование товара/услуги</t>
+  </si>
+  <si>
+    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
+  </si>
+  <si>
+    <t>table_cost_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Цена по позициям</t>
+  </si>
+  <si>
+    <t>table_cost_without_tax_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Сумма без НДС по позициям</t>
+  </si>
+  <si>
+    <t>table_qty_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Количество товара/услуг по позициям</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>test_uvhd_table03 Тест Акт ПИМ нет таблицы УВХД.png</t>
   </si>
   <si>
-    <t>table_cost_with_tax_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Сумма с НДС по позициям</t>
-  </si>
-  <si>
-    <t>table_description_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Наименование товара/услуги</t>
-  </si>
-  <si>
-    <t>table_qty_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Количество товара/услуг по позициям</t>
-  </si>
-  <si>
-    <t>table_cost_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Цена по позициям</t>
-  </si>
-  <si>
-    <t>table_cost_without_tax_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Сумма без НДС по позициям</t>
-  </si>
-  <si>
-    <t>table_unit_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Ед.изм</t>
-  </si>
-  <si>
-    <t>test_uvhd_table02 Тест Акт ПИМ есть таблица УВХД.png</t>
-  </si>
-  <si>
-    <t>1280.00</t>
-  </si>
-  <si>
-    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>усл.ед.</t>
-  </si>
-  <si>
     <t>test_uvhd_table01 Тест Акт ПИМ есть таблица УВХД.png</t>
   </si>
   <si>
+    <t>шт</t>
+  </si>
+  <si>
     <t>9200.00</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>Участие кейса «Чат-бот ВТБ» в конкурсе М/огК5расе 19а! Ауага5, в номинации «Цифровизация и трансформация / Чат-боты»</t>
-  </si>
-  <si>
-    <t>шт</t>
   </si>
   <si>
     <t>sdfsdf</t>
@@ -166,12 +166,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,6 +217,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -517,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -558,16 +567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A8:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="46.28515625" style="4"/>
-    <col min="4" max="4" width="29" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="46.28515625" style="4"/>
+    <col min="1" max="1" width="55.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,14 +619,17 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,16 +637,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,10 +657,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -655,10 +680,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -672,10 +703,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -689,21 +720,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
@@ -711,34 +745,25 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -749,39 +774,30 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -792,13 +808,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -809,258 +825,255 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +1100,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>33.33</v>
@@ -1095,7 +1108,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>33.33</v>
@@ -1103,7 +1116,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>33.33</v>
@@ -1111,7 +1124,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>83.33</v>
@@ -1119,7 +1132,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>89</v>
@@ -1127,7 +1140,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1165,13 +1178,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,13 +1192,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,13 +1206,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,13 +1220,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,10 +1234,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,13 +1245,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,13 +1259,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,10 +1273,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1274,10 +1287,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1288,13 +1301,13 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,77 +1315,77 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1380,82 +1393,82 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1503,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,13 +1517,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,10 +1531,10 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -1532,10 +1545,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1556,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,13 +1567,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,13 +1581,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,13 +1595,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,148 +1609,148 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/Класс не определен_report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
   <si>
     <t>Шаблон</t>
   </si>
@@ -67,6 +67,42 @@
     <t>test_uvhd_table02 Тест Акт ПИМ есть таблица УВХД.png</t>
   </si>
   <si>
+    <t>table_cost_without_tax_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Сумма без НДС по позициям</t>
+  </si>
+  <si>
+    <t>table_cost_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Цена по позициям</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>1 280,00</t>
+  </si>
+  <si>
+    <t>table_description_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Наименование товара/услуги</t>
+  </si>
+  <si>
+    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
+  </si>
+  <si>
+    <t>table_qty_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Количество товара/услуг по позициям</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>table_unit_column_row_attribute</t>
   </si>
   <si>
@@ -82,67 +118,61 @@
     <t>Сумма с НДС по позициям</t>
   </si>
   <si>
-    <t>1280.00</t>
-  </si>
-  <si>
-    <t>table_description_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Наименование товара/услуги</t>
-  </si>
-  <si>
-    <t>Услуги по сбору, транспортированию, обработке и утилизации офисной отработанной оргтехники и иных материальных средств различных классов опасности</t>
-  </si>
-  <si>
-    <t>table_cost_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Цена по позициям</t>
-  </si>
-  <si>
-    <t>table_cost_without_tax_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Сумма без НДС по позициям</t>
-  </si>
-  <si>
-    <t>table_qty_column_row_attribute</t>
-  </si>
-  <si>
-    <t>Количество товара/услуг по позициям</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>test_uvhd_table03 Тест Акт ПИМ нет таблицы УВХД.png</t>
   </si>
   <si>
     <t>test_uvhd_table01 Тест Акт ПИМ есть таблица УВХД.png</t>
   </si>
   <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>9 200.00</t>
+  </si>
+  <si>
+    <t>Участие кейса «ВТБ Онлайн» в конкурсе Workspace Digital Awards, в номинации «Мобильные приложения / Финансы, страхование и инвестиции»</t>
+  </si>
+  <si>
+    <t>Участие кейса «ВТБ Онлайн» в конкурсе /огК5расе 19а! Амага5, в номинации «Мобильные приложения / Финансы, страхование и инвестиции»</t>
+  </si>
+  <si>
+    <t>Участие кейса «Чат-бот ВТБ» в конкурсе Workspace Digital Awards, в номинации «Цифровизация и трансформация / Чат-боты»</t>
+  </si>
+  <si>
+    <t>Участие кейса «Чат-бот ВТБ» в конкурсе М/огК5расе 19а! Ауага5, в номинации «Цифровизация и трансформация / Чат-боты»</t>
+  </si>
+  <si>
     <t>шт</t>
   </si>
   <si>
-    <t>9200.00</t>
-  </si>
-  <si>
-    <t>Участие кейса «ВТБ Онлайн» в конкурсе Workspace Digital Awards, в номинации «Мобильные приложения / Финансы, страхование и инвестиции»</t>
-  </si>
-  <si>
-    <t>Участие кейса «Чат-бот ВТБ» в конкурсе Workspace Digital Awards, в номинации «Цифровизация и трансформация / Чат-боты»</t>
-  </si>
-  <si>
-    <t>Участие кейса «Чат-бот ВТБ» в конкурсе М/огК5расе 19а! Ауага5, в номинации «Цифровизация и трансформация / Чат-боты»</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
     <t>Наименование колонки</t>
   </si>
   <si>
     <t>Качество извлечения колонки</t>
+  </si>
+  <si>
+    <t>table_code_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Код вида товара</t>
+  </si>
+  <si>
+    <t>table_tax_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Сумма НДС по позициям</t>
+  </si>
+  <si>
+    <t>table_tax_rate_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Ставка НДС по позициям</t>
+  </si>
+  <si>
+    <t>table_unit_code_column_row_attribute</t>
+  </si>
+  <si>
+    <t>Код ед.изм</t>
   </si>
 </sst>
 </file>
@@ -166,18 +196,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -207,21 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>44.67</v>
       </c>
     </row>
   </sheetData>
@@ -565,515 +580,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -1092,15 +1081,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>33.33</v>
@@ -1108,7 +1097,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>33.33</v>
@@ -1116,7 +1105,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>33.33</v>
@@ -1124,23 +1113,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>83.33</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1175,13 +1164,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1189,13 +1178,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1203,13 +1192,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1217,13 +1206,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1231,18 +1220,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1251,12 +1240,12 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1265,63 +1254,63 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,13 +1318,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,10 +1346,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +1371,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,51 +1385,51 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1451,24 +1440,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,71 +1489,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1573,12 +1559,12 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1587,68 +1573,62 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,13 +1636,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,10 +1647,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,76 +1661,197 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
